--- a/import_models/Données exportées.xlsx
+++ b/import_models/Données exportées.xlsx
@@ -11,6 +11,7 @@
     <sheet sheetId="6" name="Fournisseurs" r:id="rId9"/>
     <sheet sheetId="7" name="Utilisateurs" r:id="rId10"/>
     <sheet sheetId="8" name="Réservations" r:id="rId11"/>
+    <sheet sheetId="9" name="Associations" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
@@ -91,17 +92,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="18.700000000000003"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="58.300000000000004"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="77.0"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="5.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="91.30000000000001"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="70.4"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="23.1"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="77.0"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="91.30000000000001"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -117,15 +120,25 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>Catégorie</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Publique ?</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
           <t>Matériel + quantité</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Lieux disponibles</t>
         </is>
@@ -144,13 +157,23 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Raquette de Badminton (16.0) + machin (6.0)</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="n">
+          <t>Bizutage</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Raquette de Badminton (16,0) + machin (6,0)</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Hall omnisport, Namur + Salle Jean-Jaurès, Bruxelles</t>
         </is>
@@ -169,13 +192,23 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Raquette de Badminton (11.0) + Ruban adhésif (3.0)</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
+          <t>Bizutage</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Raquette de Badminton (11,0) + Ruban adhésif (3,0)</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Hall omnisport, Namur + Salle des Morpions, Liège + Salle Jean-Jaurès, Bruxelles</t>
         </is>
@@ -194,13 +227,23 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Ruban adhésif (6.0) + Raquette de Badminton (4.0) + machin (2.0)</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
+          <t>Bizutage</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Ruban adhésif (6,0) + Raquette de Badminton (4,0) + machin (2,0)</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>Hall omnisport, Namur + Salle des Morpions, Liège + Salle Jean-Jaurès, Bruxelles</t>
         </is>
@@ -219,13 +262,23 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
+          <t>Bizutage</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="F5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -244,13 +297,23 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Ruban adhésif (20.0) + machin (10.0)</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
+          <t>Bizutage extérieur</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Ruban adhésif (20,0) + machin (10,0)</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>Hall omnisport, Namur + Salle des Morpions, Liège</t>
         </is>
@@ -259,73 +322,138 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Handball</t>
+          <t>Grand feu</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Le hand, c'est du hand :)</t>
+          <t>C'est un fameux Grand feu, fin comme un oiseau, Iseo Santiano</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Raquette de Badminton (10.0) + machin (15.0) + Ruban adhésif (31.0)</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>6</v>
+          <t>Bizutage extérieur</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Hall omnisport, Namur + Salle Jean-Jaurès, Bruxelles</t>
+          <t>Maillot de bain (10,0)</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Grand Theatre, Bruxelles</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Paintball</t>
+          <t>Handball</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Mega trop bien le paintball !!!</t>
+          <t>Le hand, c'est du hand :)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>machin (10.0) + Raquette de Badminton (6.0)</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>7</v>
+          <t>Bizutage</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Hall omnisport, Namur</t>
+          <t>Raquette de Badminton (10,0) + machin (15,0) + Ruban adhésif (31,0)</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Hall omnisport, Namur + Salle Jean-Jaurès, Bruxelles</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
+          <t>Paintball</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Mega trop bien le paintball !!!</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Bizutage extérieur</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>machin (10,0) + Raquette de Badminton (6,0)</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Hall omnisport, Namur</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
           <t>Ping-Pong</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>dohdoahdoazhdoahodada</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Projecteur multicouleur (4.0) + Ruban adhésif (8.0)</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Bizutage</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Projecteur multicouleur (4,0) + Ruban adhésif (8,0)</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>Salle des Morpions, Liège</t>
         </is>
@@ -345,7 +473,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -353,8 +481,9 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="26.400000000000002"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="26.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="18.700000000000003"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="5.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -370,19 +499,24 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Catégorie pour</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>id</t>
+          <t>Numérotation</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Id</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Balles</t>
+          <t>Bizutage</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -392,37 +526,47 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Matériel</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Activité</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Balles de tennis</t>
+          <t>Bizutage extérieur</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Balles</t>
+          <t>Bizutage</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Matériel</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>2</v>
+          <t>1.1.</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Activité</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Projecteur</t>
+          <t>Balles</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -432,37 +576,47 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
           <t>Matériel</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>3</v>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Projecteur Red</t>
+          <t>Balles de tennis</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Projecteur</t>
+          <t>Balles</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
+          <t>2.1.</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
           <t>Matériel</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>4</v>
+      <c r="E5" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Raquettes démoniaques</t>
+          <t>Projecteur</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -472,31 +626,141 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
           <t>Matériel</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>5</v>
+      <c r="E6" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
+          <t>Projecteur Red</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Projecteur</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>3.1.</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Matériel</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Raquettes démoniaques</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Matériel</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
           <t>Raquette de Badminton</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Raquettes démoniaques</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>4.1.</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Matériel</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="E9" s="4" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Maillot</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Matériel</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Evènement</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Evènement</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +777,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -523,7 +787,7 @@
     <col min="2" max="2" bestFit="1" customWidth="1" width="52.800000000000004"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="26.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="19.8"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="16.5"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="17.6"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
@@ -579,7 +843,7 @@
       </c>
       <c r="J1" s="4" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>Id</t>
         </is>
       </c>
     </row>
@@ -606,7 +870,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Abel &amp; Comp</t>
+          <t>Abel et Co</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -636,150 +900,200 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Projecteur multicouleur</t>
+          <t>Maillot de bain</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Projecteur qui claque des fesses</t>
+          <t>C'est un super maillot de bain</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>200,0</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Projecteur Red</t>
+          <t>Maillot</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>odpkzapoda</t>
+          <t>Maillot et Mayo</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>95,0</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>200,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t/>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>12,123</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Raquette de Badminton</t>
+          <t>Projecteur multicouleur</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Trop belle la raquette de Badminton</t>
+          <t>Projecteur qui claque des fesses</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>9,95</t>
+          <t>200,0</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Raquette de Badminton</t>
+          <t>Projecteur Red</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>joizfhjaoicza</t>
+          <t>Maillot et Mayo</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>95,0</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>200,0</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>99,99</t>
+          <t>12,123</t>
         </is>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
+          <t>Raquette de Badminton</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Trop belle la raquette de Badminton</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>9,95</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Raquette de Badminton</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Sandalles</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>40,0</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>99,99</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
           <t>Ruban adhésif</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Super ruban qui a trop la classe</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>4,99</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Raquettes démoniaques</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Abel &amp; Comp</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Abel et Co</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>4,0</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>4,0</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>4,0</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>85,0</t>
         </is>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J6" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -797,31 +1111,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="23.1"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="24.200000000000003"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="24.200000000000003"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="29.700000000000003"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="22.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="22.0"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="30.800000000000004"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="56.1"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="78.10000000000001"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="18.700000000000003"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="13" max="13" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="14" max="14" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="15" max="15" bestFit="1" customWidth="1" width="26.400000000000002"/>
-    <col min="16" max="16" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="17" max="17" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="18" max="18" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="19" max="19" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="24.200000000000003"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="24.200000000000003"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="29.700000000000003"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="22.0"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="22.0"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="30.800000000000004"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="56.1"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="78.10000000000001"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="22.0"/>
+    <col min="14" max="14" bestFit="1" customWidth="1" width="5.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -832,90 +1141,65 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Catégorie</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>Date de début</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Date de fin</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Clôture des inscriptions</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Min. participants</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Max. participants</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Prix (€)</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Lieu</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Activités + simultanée</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Activités + quantité</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Matériel supplémentaire + quantité</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Nom de famille</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>Prénom</t>
-        </is>
-      </c>
       <c r="M1" s="3" t="inlineStr">
         <is>
-          <t>Téléphone</t>
-        </is>
-      </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t>Rue et numéro</t>
-        </is>
-      </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>Code postal</t>
-        </is>
-      </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>Ville</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="inlineStr">
-        <is>
-          <t>Pays</t>
-        </is>
-      </c>
-      <c r="S1" s="4" t="inlineStr">
+          <t>Contact (user Id)</t>
+        </is>
+      </c>
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>id</t>
         </is>
@@ -929,82 +1213,59 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>27/04/2021, à 17:45</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>27/05/2021, à 17:45</t>
+          <t>Evènement</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>20/04/2021, à 17:45</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
+          <t>27/04/2027, à 17:45</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>27/05/2027, à 17:45</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>20/04/2027, à 17:45</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="H2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>111111,0</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Salle des Morpions, Liège</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Cartes (5) + Danse de salon (10) + Football (20)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>machin (3.0) + Projecteur multicouleur (10.0) + Ruban adhésif (40.0)</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>dhaidhaiuhd</t>
-        </is>
-      </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>djadjadjao</t>
+          <t>machin (3,0) + Projecteur multicouleur (10,0) + Ruban adhésif (40,0)</t>
         </is>
       </c>
       <c r="M2" s="3" t="n">
-        <v>4546544456</v>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>dadanda@jazoada.diod</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>odhaohdoahda</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>45646</v>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>dazodhaoda</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>djajdoaijda</t>
-        </is>
-      </c>
-      <c r="S2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1016,84 +1277,59 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
+          <t>Privé</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Evènement</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
           <t>20/03/2031, à 16:20</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>20/03/2031, à 22:20</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>14/03/2031, à 00:00</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="G3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="H3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>89,99</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>Salle des Morpions, Liège</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>Cartes (4) + Danse de salon (8) + Fléchettes (5)</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Projecteur multicouleur (30.0) + Ruban adhésif (120.0)</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>Boubouche</t>
-        </is>
-      </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>Babouche</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>0499/99.99.99</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>super@babouche.net</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>Rue des Babouches, 15</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>1515</v>
-      </c>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>Boubouche</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>BaboucheCountry</t>
-        </is>
-      </c>
-      <c r="S3" s="4" t="n">
+          <t>Projecteur multicouleur (30,0) + Ruban adhésif (120,0)</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1105,82 +1341,59 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Evènement</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
           <t>23/03/2041, à 21:19</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>17/06/2041, à 21:19</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>20/03/2041, à 21:19</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="G4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="H4" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>45,0</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Hall omnisport, Namur</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>hdizhdadaz</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>kdpoakdap</t>
-        </is>
-      </c>
       <c r="M4" s="3" t="n">
-        <v>4564644464</v>
-      </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>dajdoia@djzoida.cms</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>dzahoidaoidhada</t>
-        </is>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>4545</v>
-      </c>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>dpajdpajdpa</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t>dpakdapjdap</t>
-        </is>
-      </c>
-      <c r="S4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1192,84 +1405,59 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Evènement</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
           <t>23/03/2041, à 22:24</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>25/03/2041, à 22:24</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>18/03/2041, à 22:24</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="G5" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="H5" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>41,0</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Hall omnisport, Namur</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>Badminton (10) + Cartes (5) + Handball (3)</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Ruban adhésif (25.0) + Projecteur multicouleur (10.0)</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>Bastin</t>
-        </is>
-      </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>Cyriel</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>0497/18.37.09</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>cyriel.bastin@zoho.com</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>Rue de Gembloux, 15</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>5002</v>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>Saint-Servais</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>Belgique</t>
-        </is>
-      </c>
-      <c r="S5" s="4" t="n">
+          <t>Ruban adhésif (25,0) + Projecteur multicouleur (10,0)</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1287,32 +1475,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="23.1"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="25.3"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="25.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="79.2"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
     <col min="11" max="11" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="20.900000000000002"/>
-    <col min="13" max="13" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="14" max="14" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="15" max="15" bestFit="1" customWidth="1" width="29.700000000000003"/>
-    <col min="16" max="16" bestFit="1" customWidth="1" width="24.200000000000003"/>
-    <col min="17" max="17" bestFit="1" customWidth="1" width="18.700000000000003"/>
-    <col min="18" max="18" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="19" max="19" bestFit="1" customWidth="1" width="18.700000000000003"/>
-    <col min="20" max="20" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="22.0"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="5.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1323,34 +1504,34 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
           <t>Capacité max.</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Rue et numéro</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Code postal</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Ville</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Code postal</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Pays</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Activités disponibles</t>
@@ -1373,47 +1554,12 @@
       </c>
       <c r="L1" s="3" t="inlineStr">
         <is>
-          <t>Nom de famille</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Prénom</t>
-        </is>
-      </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>Téléphone</t>
-        </is>
-      </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>c. Rue et numéro</t>
-        </is>
-      </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>c. Code postal</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="inlineStr">
-        <is>
-          <t>c. Ville</t>
-        </is>
-      </c>
-      <c r="S1" s="3" t="inlineStr">
-        <is>
-          <t>c. Pays</t>
-        </is>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>id</t>
+          <t>Contact (user Id)</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>Id</t>
         </is>
       </c>
     </row>
@@ -1423,17 +1569,17 @@
           <t>Grand Theatre</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Privé</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Rue de l'Atomium, 54</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Bruxelles</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
@@ -1441,17 +1587,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Bruxelles</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Belgique</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Intérieur</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t/>
+          <t>Grand feu</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -1469,43 +1615,10 @@
           <t>30,0</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>jdoizadoiahdoahd</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>dazjdajzdaj</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>4564648687468</v>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>dapdjaopda@djazdza.coa</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>djoizahdoahda, 45</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>4444</v>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>djazodja</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>dajzopdajdajda</t>
-        </is>
-      </c>
-      <c r="T2" s="4" t="n">
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1515,17 +1628,17 @@
           <t>Hall omnisport</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Rue Roger Rabbit, 11</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Namur</t>
         </is>
       </c>
       <c r="E3" s="3" t="n">
@@ -1533,14 +1646,14 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
+          <t>Namur</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
           <t>Belgique</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Intérieur</t>
-        </is>
-      </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
           <t>Badminton + Cartes + Danse de salon + Football + Handball + Paintball</t>
@@ -1561,45 +1674,10 @@
           <t>12,0</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>Bastin</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>Cyriel</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>0497/18.37.09</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>bastincyriel@hotmail.com</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>Rue de Gembloux, 15</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>5002</v>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>Saint-Servais</t>
-        </is>
-      </c>
-      <c r="S3" s="3" t="inlineStr">
-        <is>
-          <t>Belgique</t>
-        </is>
-      </c>
-      <c r="T3" s="4" t="n">
+      <c r="L3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1609,17 +1687,17 @@
           <t>Salle des Morpions</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Privé</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Rue qui Gratte, 123</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Liège</t>
         </is>
       </c>
       <c r="E4" s="3" t="n">
@@ -1627,14 +1705,14 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
+          <t>Liège</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
           <t>Belgique</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>Intérieur</t>
-        </is>
-      </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
           <t>Cartes + Danse de salon + Football + Ping-Pong</t>
@@ -1655,45 +1733,10 @@
           <t>4,0</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>LaLouche</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>Jacky</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>0499/11.11.11</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>jacky_la_louche@free.fr</t>
-        </is>
-      </c>
-      <c r="P4" s="3" t="inlineStr">
-        <is>
-          <t>Grand Rue, 64</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>4020</v>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t>Liège</t>
-        </is>
-      </c>
-      <c r="S4" s="3" t="inlineStr">
-        <is>
-          <t>Belgique</t>
-        </is>
-      </c>
-      <c r="T4" s="4" t="n">
+      <c r="L4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1703,17 +1746,17 @@
           <t>Salle Jean-Jaurès</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Rue du Festin, 56</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Bruxelles</t>
         </is>
       </c>
       <c r="E5" s="3" t="n">
@@ -1721,14 +1764,14 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
+          <t>Bruxelles</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
           <t>Belgique</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>Intérieur</t>
-        </is>
-      </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
           <t>Badminton + Cartes + Danse de salon + Handball</t>
@@ -1749,45 +1792,10 @@
           <t>15,0</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>Molimo</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>Abel</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>0498/12.12.12</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>abel.molimo@gmail.com</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>Rue de l'Ange, 97</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>Bruxelles</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>Belgique</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="n">
+      <c r="L5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1805,260 +1813,160 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="18.700000000000003"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="26.400000000000002"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="22.0"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="19.8"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="25.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="8.8"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="28.6"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="5.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Entreprise</t>
+          <t>Nom</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>Nom de famille</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Prénom</t>
+          <t>Téléphone</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Téléphone</t>
+          <t>Code postal</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Ville</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Rue et numéro</t>
+          <t>Pays</t>
         </is>
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Code postal</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Ville</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Pays</t>
-        </is>
-      </c>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>id</t>
+          <t>Contact supp. (User id)</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Id</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Abel &amp; Co</t>
+          <t>Abel et Co</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Molimo</t>
+          <t>abel.co@contact.be</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Abel</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>0497/45.21.11</t>
-        </is>
+          <t>0447/12.12.12</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>5000</v>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>abel@molimo.com</t>
+          <t>Namur</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Rue de l'ange, 97</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Namur</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>Belgique</t>
         </is>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Abel &amp; Comp</t>
+          <t>Maillot et Mayo</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Molimo</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Abel</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>4999999990</v>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>abel@molimo.com</t>
-        </is>
-      </c>
+          <t>maillot@contact.com</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Rue de l'ange, 97</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Namur</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Belgique</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>2</v>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>2 + 5</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>joizfhjaoicza</t>
+          <t>Sandalles</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>zzzzzzzzzzzzzz</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Albert II</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>4999999990</v>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>jdoizj@jorbbr.com</t>
-        </is>
-      </c>
+          <t>sandalle@contact.com</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Rue de l'ange</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>Marbehan</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>Belgique</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>odpkzapoda</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Bastin</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>hveiohei</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>9999999999</v>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>dadadaz@djziodz.kdopz</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>zdzdzdzdadzadaz</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>4444</v>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>djzoiada</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>jdzopjdz</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>4</v>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>4 + 3 + 1</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2075,318 +1983,407 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="29.700000000000003"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="22.0"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="7.700000000000001"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="18.700000000000003"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="19.8"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="29.700000000000003"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="7.700000000000001"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="22.0"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="19.8"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="28.6"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="12.100000000000001"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Sexe</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Date de naissance</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>sexe</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Nom de famille</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Prénom</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Téléphone</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Rue et numéro</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Code postal</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Ville</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Pays</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Admin ?</t>
-        </is>
-      </c>
-      <c r="L1" s="4" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Dummy</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Big</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>big_dummy@yolo.me</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Non invité</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>25/11/1975</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>0444/44.44.44</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Rue Saint-Georges, 44</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>4444</v>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mortadelle</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Fromage</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Dutronc</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Utilisateur</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>anned@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Non invité</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>04/08/1985</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>0498/11.22.33</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Rue du Parlement, 245</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>Namur</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Lagaffe</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Utilisateur</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>vincentlagaffe@skynet.be</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Non invité</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Dummy</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Big</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>0444/44.44.44</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Rue Saint-Georges, 44</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>4444</v>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Mortadelle</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Fromage</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>anned@hotmail.com</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>04/08/1985</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>30/09/2000</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>0471/54.21.87</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>Rue de l'Atomium, 17</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>Bruxelles</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Chazal</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Claire</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>claire_chazal@tfi.fr</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Non invité</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Dutronc</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Anne</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>0498/11.22.33</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Rue du Parlement, 245</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Namur</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Belgique</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>01/12/1956</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>+33123/45.67.89</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Rue des Saint-Pères, 61</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>75006</v>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>George</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Utilisateur</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>lucas_george@movies.us</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Non invité</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>vincentlagaffe@skynet.be</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>30/09/2000</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Lagaffe</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>Vincent</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>0471/54.21.87</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>Rue de l'Atomium, 17</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>Bruxelles</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Belgique</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="I6" s="3" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>claire_chazal@tfi.fr</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>01/12/1956</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Chazal</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Claire</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>+33123/45.67.89</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>Rue des Saint-Pères, 61</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>75006</v>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>Paris</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>4</v>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2403,18 +2400,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="23.1"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="30.800000000000004"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="24.200000000000003"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="8.8"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="18.700000000000003"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="22.0"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="19.8"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="29.700000000000003"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="8.8"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="24.200000000000003"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -2492,7 +2489,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>27/04/2021, à 17:45</t>
+          <t>27/04/2027, à 17:45</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
@@ -2543,7 +2540,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>27/04/2021, à 17:45</t>
+          <t>27/04/2027, à 17:45</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -2564,7 +2561,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>06/04/2021, à 07:00</t>
+          <t/>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
@@ -2584,21 +2581,21 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Super Event</t>
+          <t>Babouche Boubouche</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Hall omnisport, Namur</t>
+          <t>Salle des Morpions, Liège</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>23/03/2041, à 22:24</t>
+          <t>20/03/2031, à 16:20</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -2615,41 +2612,39 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>05/04/2021, à 12:00</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>90,0</t>
-        </is>
+          <t>03/05/2021, à 15:47</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>12</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>05/04/2021, à 12:00</t>
+          <t>03/05/2021, à 15:47</t>
         </is>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Super Event</t>
+          <t>Babouche Boubouche</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Hall omnisport, Namur</t>
+          <t>Salle des Morpions, Liège</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>23/03/2041, à 22:24</t>
+          <t>20/03/2031, à 16:20</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
@@ -2666,21 +2661,353 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Babouche Boubouche</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Salle des Morpions, Liège</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>20/03/2031, à 16:20</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Vincent LAGAFFE</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>vincentlagaffe@skynet.be</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>Gratuit</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Babouche Boubouche</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Salle des Morpions, Liège</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>20/03/2031, à 16:20</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Claire CHAZAL</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>claire_chazal@tfi.fr</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Gratuit</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Super Event</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Hall omnisport, Namur</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>23/03/2041, à 22:24</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Big DUMMY</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>big_dummy@yolo.me</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
           <t>05/04/2021, à 12:00</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>90,0</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Super Event</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Hall omnisport, Namur</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>23/03/2041, à 22:24</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Anne DUTRONC</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>anned@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>140,1</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>05/04/2021, à 12:00</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="n">
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K9" s="4" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <printOptions verticalCentered="0" horizontalCentered="0" headings="0" gridLines="0"/>
+  <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="20.900000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="22.0"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.8"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="5.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Catégorie</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Utilisateurs (Id)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Lieux (Id)</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Activités (Id)</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Evènements (Id)</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Arc-en-Ciel</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Bizutage</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2 + 4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>4 + 2 + 1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Les Bienfaiteurs</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Maillot</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1 + 3 + 5</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
